--- a/data/raw/dataset_raw.xlsx
+++ b/data/raw/dataset_raw.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$Q$1:$Q$795</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$O$1:$O$783</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1883,12 +1883,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA795"/>
+  <dimension ref="A1:AA783"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A514" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Z18" sqref="Z18"/>
+      <selection pane="bottomLeft" activeCell="Y528" sqref="Y528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
@@ -45152,7 +45152,7 @@
         <v>0.65</v>
       </c>
       <c r="X521" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y521" s="15">
         <v>638</v>
@@ -45235,7 +45235,7 @@
         <v>0.65</v>
       </c>
       <c r="X522" s="15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y522" s="15">
         <v>515</v>
@@ -66910,355 +66910,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="784" spans="1:27">
-      <c r="A784" s="8"/>
-      <c r="B784" s="8"/>
-      <c r="C784" s="9"/>
-      <c r="D784" s="8"/>
-      <c r="E784" s="8"/>
-      <c r="F784" s="8"/>
-      <c r="G784" s="8"/>
-      <c r="H784" s="8"/>
-      <c r="I784" s="8"/>
-      <c r="J784" s="8"/>
-      <c r="K784" s="11"/>
-      <c r="L784" s="9"/>
-      <c r="M784" s="8"/>
-      <c r="N784" s="8"/>
-      <c r="O784" s="8"/>
-      <c r="P784" s="8"/>
-      <c r="Q784" s="13"/>
-      <c r="R784" s="8"/>
-      <c r="S784" s="8"/>
-      <c r="T784" s="8"/>
-      <c r="U784" s="8"/>
-      <c r="V784" s="8"/>
-      <c r="W784" s="8"/>
-      <c r="X784" s="8"/>
-      <c r="Y784" s="8"/>
-      <c r="Z784" s="8"/>
-      <c r="AA784" s="8"/>
-    </row>
-    <row r="785" spans="1:27">
-      <c r="A785" s="8"/>
-      <c r="B785" s="8"/>
-      <c r="C785" s="9"/>
-      <c r="D785" s="8"/>
-      <c r="E785" s="8"/>
-      <c r="F785" s="8"/>
-      <c r="G785" s="8"/>
-      <c r="H785" s="8"/>
-      <c r="I785" s="8"/>
-      <c r="J785" s="8"/>
-      <c r="K785" s="11"/>
-      <c r="L785" s="9"/>
-      <c r="M785" s="8"/>
-      <c r="N785" s="8"/>
-      <c r="O785" s="8"/>
-      <c r="P785" s="8"/>
-      <c r="Q785" s="13"/>
-      <c r="R785" s="8"/>
-      <c r="S785" s="8"/>
-      <c r="T785" s="8"/>
-      <c r="U785" s="8"/>
-      <c r="V785" s="8"/>
-      <c r="W785" s="8"/>
-      <c r="X785" s="8"/>
-      <c r="Y785" s="8"/>
-      <c r="Z785" s="8"/>
-      <c r="AA785" s="8"/>
-    </row>
-    <row r="786" spans="1:27">
-      <c r="A786" s="8"/>
-      <c r="B786" s="8"/>
-      <c r="C786" s="9"/>
-      <c r="D786" s="8"/>
-      <c r="E786" s="8"/>
-      <c r="F786" s="8"/>
-      <c r="G786" s="8"/>
-      <c r="H786" s="8"/>
-      <c r="I786" s="8"/>
-      <c r="J786" s="8"/>
-      <c r="K786" s="11"/>
-      <c r="L786" s="9"/>
-      <c r="M786" s="8"/>
-      <c r="N786" s="8"/>
-      <c r="O786" s="8"/>
-      <c r="P786" s="8"/>
-      <c r="Q786" s="13"/>
-      <c r="R786" s="8"/>
-      <c r="S786" s="8"/>
-      <c r="T786" s="8"/>
-      <c r="U786" s="8"/>
-      <c r="V786" s="8"/>
-      <c r="W786" s="8"/>
-      <c r="X786" s="8"/>
-      <c r="Y786" s="8"/>
-      <c r="Z786" s="8"/>
-      <c r="AA786" s="8"/>
-    </row>
-    <row r="787" spans="1:27">
-      <c r="A787" s="8"/>
-      <c r="B787" s="8"/>
-      <c r="C787" s="9"/>
-      <c r="D787" s="8"/>
-      <c r="E787" s="8"/>
-      <c r="F787" s="8"/>
-      <c r="G787" s="8"/>
-      <c r="H787" s="8"/>
-      <c r="I787" s="8"/>
-      <c r="J787" s="8"/>
-      <c r="K787" s="11"/>
-      <c r="L787" s="9"/>
-      <c r="M787" s="8"/>
-      <c r="N787" s="8"/>
-      <c r="O787" s="8"/>
-      <c r="P787" s="8"/>
-      <c r="Q787" s="13"/>
-      <c r="R787" s="8"/>
-      <c r="S787" s="8"/>
-      <c r="T787" s="8"/>
-      <c r="U787" s="8"/>
-      <c r="V787" s="8"/>
-      <c r="W787" s="8"/>
-      <c r="X787" s="8"/>
-      <c r="Y787" s="8"/>
-      <c r="Z787" s="8"/>
-      <c r="AA787" s="8"/>
-    </row>
-    <row r="788" spans="1:27">
-      <c r="A788" s="8"/>
-      <c r="B788" s="8"/>
-      <c r="C788" s="9"/>
-      <c r="D788" s="8"/>
-      <c r="E788" s="8"/>
-      <c r="F788" s="8"/>
-      <c r="G788" s="8"/>
-      <c r="H788" s="8"/>
-      <c r="I788" s="8"/>
-      <c r="J788" s="8"/>
-      <c r="K788" s="11"/>
-      <c r="L788" s="9"/>
-      <c r="M788" s="8"/>
-      <c r="N788" s="8"/>
-      <c r="O788" s="8"/>
-      <c r="P788" s="8"/>
-      <c r="Q788" s="13"/>
-      <c r="R788" s="8"/>
-      <c r="S788" s="8"/>
-      <c r="T788" s="8"/>
-      <c r="U788" s="8"/>
-      <c r="V788" s="8"/>
-      <c r="W788" s="8"/>
-      <c r="X788" s="8"/>
-      <c r="Y788" s="8"/>
-      <c r="Z788" s="8"/>
-      <c r="AA788" s="8"/>
-    </row>
-    <row r="789" spans="1:27">
-      <c r="A789" s="8"/>
-      <c r="B789" s="8"/>
-      <c r="C789" s="9"/>
-      <c r="D789" s="8"/>
-      <c r="E789" s="8"/>
-      <c r="F789" s="8"/>
-      <c r="G789" s="8"/>
-      <c r="H789" s="8"/>
-      <c r="I789" s="8"/>
-      <c r="J789" s="8"/>
-      <c r="K789" s="11"/>
-      <c r="L789" s="9"/>
-      <c r="M789" s="8"/>
-      <c r="N789" s="8"/>
-      <c r="O789" s="8"/>
-      <c r="P789" s="8"/>
-      <c r="Q789" s="13"/>
-      <c r="R789" s="8"/>
-      <c r="S789" s="8"/>
-      <c r="T789" s="8"/>
-      <c r="U789" s="8"/>
-      <c r="V789" s="8"/>
-      <c r="W789" s="8"/>
-      <c r="X789" s="8"/>
-      <c r="Y789" s="8"/>
-      <c r="Z789" s="8"/>
-      <c r="AA789" s="8"/>
-    </row>
-    <row r="790" spans="1:27">
-      <c r="A790" s="8"/>
-      <c r="B790" s="8"/>
-      <c r="C790" s="9"/>
-      <c r="D790" s="8"/>
-      <c r="E790" s="8"/>
-      <c r="F790" s="8"/>
-      <c r="G790" s="8"/>
-      <c r="H790" s="8"/>
-      <c r="I790" s="8"/>
-      <c r="J790" s="8"/>
-      <c r="K790" s="11"/>
-      <c r="L790" s="9"/>
-      <c r="M790" s="8"/>
-      <c r="N790" s="8"/>
-      <c r="O790" s="8"/>
-      <c r="P790" s="8"/>
-      <c r="Q790" s="13"/>
-      <c r="R790" s="8"/>
-      <c r="S790" s="8"/>
-      <c r="T790" s="8"/>
-      <c r="U790" s="8"/>
-      <c r="V790" s="8"/>
-      <c r="W790" s="8"/>
-      <c r="X790" s="8"/>
-      <c r="Y790" s="8"/>
-      <c r="Z790" s="8"/>
-      <c r="AA790" s="8"/>
-    </row>
-    <row r="791" spans="1:27">
-      <c r="A791" s="8"/>
-      <c r="B791" s="8"/>
-      <c r="C791" s="9"/>
-      <c r="D791" s="8"/>
-      <c r="E791" s="8"/>
-      <c r="F791" s="8"/>
-      <c r="G791" s="8"/>
-      <c r="H791" s="8"/>
-      <c r="I791" s="8"/>
-      <c r="J791" s="8"/>
-      <c r="K791" s="11"/>
-      <c r="L791" s="9"/>
-      <c r="M791" s="8"/>
-      <c r="N791" s="8"/>
-      <c r="O791" s="8"/>
-      <c r="P791" s="8"/>
-      <c r="Q791" s="13"/>
-      <c r="R791" s="8"/>
-      <c r="S791" s="8"/>
-      <c r="T791" s="8"/>
-      <c r="U791" s="8"/>
-      <c r="V791" s="8"/>
-      <c r="W791" s="8"/>
-      <c r="X791" s="8"/>
-      <c r="Y791" s="8"/>
-      <c r="Z791" s="8"/>
-      <c r="AA791" s="8"/>
-    </row>
-    <row r="792" spans="1:27">
-      <c r="A792" s="8"/>
-      <c r="B792" s="8"/>
-      <c r="C792" s="9"/>
-      <c r="D792" s="8"/>
-      <c r="E792" s="8"/>
-      <c r="F792" s="8"/>
-      <c r="G792" s="8"/>
-      <c r="H792" s="8"/>
-      <c r="I792" s="8"/>
-      <c r="J792" s="8"/>
-      <c r="K792" s="11"/>
-      <c r="L792" s="9"/>
-      <c r="M792" s="8"/>
-      <c r="N792" s="8"/>
-      <c r="O792" s="8"/>
-      <c r="P792" s="8"/>
-      <c r="Q792" s="13"/>
-      <c r="R792" s="8"/>
-      <c r="S792" s="8"/>
-      <c r="T792" s="8"/>
-      <c r="U792" s="8"/>
-      <c r="V792" s="8"/>
-      <c r="W792" s="8"/>
-      <c r="X792" s="8"/>
-      <c r="Y792" s="8"/>
-      <c r="Z792" s="8"/>
-      <c r="AA792" s="8"/>
-    </row>
-    <row r="793" spans="1:27">
-      <c r="A793" s="8"/>
-      <c r="B793" s="8"/>
-      <c r="C793" s="9"/>
-      <c r="D793" s="8"/>
-      <c r="E793" s="8"/>
-      <c r="F793" s="8"/>
-      <c r="G793" s="8"/>
-      <c r="H793" s="8"/>
-      <c r="I793" s="8"/>
-      <c r="J793" s="8"/>
-      <c r="K793" s="11"/>
-      <c r="L793" s="9"/>
-      <c r="M793" s="8"/>
-      <c r="N793" s="8"/>
-      <c r="O793" s="8"/>
-      <c r="P793" s="8"/>
-      <c r="Q793" s="13"/>
-      <c r="R793" s="8"/>
-      <c r="S793" s="8"/>
-      <c r="T793" s="8"/>
-      <c r="U793" s="8"/>
-      <c r="V793" s="8"/>
-      <c r="W793" s="8"/>
-      <c r="X793" s="8"/>
-      <c r="Y793" s="8"/>
-      <c r="Z793" s="8"/>
-      <c r="AA793" s="8"/>
-    </row>
-    <row r="794" spans="1:27">
-      <c r="A794" s="8"/>
-      <c r="B794" s="8"/>
-      <c r="C794" s="9"/>
-      <c r="D794" s="8"/>
-      <c r="E794" s="8"/>
-      <c r="F794" s="8"/>
-      <c r="G794" s="8"/>
-      <c r="H794" s="8"/>
-      <c r="I794" s="8"/>
-      <c r="J794" s="8"/>
-      <c r="K794" s="11"/>
-      <c r="L794" s="9"/>
-      <c r="M794" s="8"/>
-      <c r="N794" s="8"/>
-      <c r="O794" s="8"/>
-      <c r="P794" s="8"/>
-      <c r="Q794" s="13"/>
-      <c r="R794" s="8"/>
-      <c r="S794" s="8"/>
-      <c r="T794" s="8"/>
-      <c r="U794" s="8"/>
-      <c r="V794" s="8"/>
-      <c r="W794" s="8"/>
-      <c r="X794" s="8"/>
-      <c r="Y794" s="8"/>
-      <c r="Z794" s="8"/>
-      <c r="AA794" s="8"/>
-    </row>
-    <row r="795" spans="1:27">
-      <c r="A795" s="8"/>
-      <c r="B795" s="8"/>
-      <c r="C795" s="9"/>
-      <c r="D795" s="8"/>
-      <c r="E795" s="8"/>
-      <c r="F795" s="8"/>
-      <c r="G795" s="8"/>
-      <c r="H795" s="8"/>
-      <c r="I795" s="8"/>
-      <c r="J795" s="8"/>
-      <c r="K795" s="11"/>
-      <c r="L795" s="9"/>
-      <c r="M795" s="8"/>
-      <c r="N795" s="8"/>
-      <c r="O795" s="8"/>
-      <c r="P795" s="8"/>
-      <c r="Q795" s="13"/>
-      <c r="R795" s="8"/>
-      <c r="S795" s="8"/>
-      <c r="T795" s="8"/>
-      <c r="U795" s="8"/>
-      <c r="V795" s="8"/>
-      <c r="W795" s="8"/>
-      <c r="X795" s="8"/>
-      <c r="Y795" s="8"/>
-      <c r="Z795" s="8"/>
-      <c r="AA795" s="8"/>
-    </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="O1:O783" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
